--- a/Dataset_EDA_Pairplot_Feature_PCA_Mahalanobis/new FeCrNiCoV to corrosion dataset.xlsx
+++ b/Dataset_EDA_Pairplot_Feature_PCA_Mahalanobis/new FeCrNiCoV to corrosion dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,27 +526,67 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>delta_a</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Tm</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>sigma_Tm</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Hmix</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>sigma_Hmix</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>sigma_elec_nega</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>VEC</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>sigma_VEC</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>Mahalanobis</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>p value</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>dataset</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PCA1</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PCA2</t>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>UMAP Component 1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>UMAP Component 2</t>
         </is>
       </c>
     </row>
@@ -609,19 +649,45 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6.481869471382621</v>
+        <v>0.007567560866934837</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0391273043124486</v>
+        <v>1898.775788633536</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>210.08295698605</v>
       </c>
       <c r="W2" t="n">
-        <v>-12.58094421058641</v>
+        <v>-6.271298853023574</v>
       </c>
       <c r="X2" t="n">
-        <v>37.13656091054489</v>
+        <v>2.111357319910796</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.1156826189583638</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8.311398201392562</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.854883648133144</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>14.22472196367212</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.000814968592858345</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE2" t="n">
+        <v>2.66701340675354</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>13.55666255950928</v>
       </c>
     </row>
     <row r="3">
@@ -683,19 +749,45 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.729850061721124</v>
+        <v>0.008981693372021508</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0209644940682181</v>
+        <v>1910.795152973678</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>212.1178454432332</v>
       </c>
       <c r="W3" t="n">
-        <v>-12.12749409731982</v>
+        <v>-6.468448355120914</v>
       </c>
       <c r="X3" t="n">
-        <v>34.18910404804718</v>
+        <v>2.332729780166001</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.1167603319357038</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8.184012913062192</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.86699756583838</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>14.07362744800669</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0008789225953946822</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>2.699305057525635</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13.65919876098633</v>
       </c>
     </row>
     <row r="4">
@@ -757,19 +849,45 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>9.551772180138446</v>
+        <v>0.01049891504989096</v>
       </c>
       <c r="U4" t="n">
-        <v>0.008430610496564683</v>
+        <v>1916.090626733144</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>211.7767346850572</v>
       </c>
       <c r="W4" t="n">
-        <v>-11.6550238300624</v>
+        <v>-6.589870748179617</v>
       </c>
       <c r="X4" t="n">
-        <v>31.31369015932304</v>
+        <v>2.581555258790369</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.1166235588699299</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8.103673917714687</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1.860835719820995</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>13.69858844226995</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.001060203698276196</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
+        <v>2.574592351913452</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13.87529563903809</v>
       </c>
     </row>
     <row r="5">
@@ -831,19 +949,45 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>13.69056158210921</v>
+        <v>0.01226566696882826</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001064467301804539</v>
+        <v>1921.152628589558</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>211.2849915172502</v>
       </c>
       <c r="W5" t="n">
-        <v>-11.65243767314136</v>
+        <v>-6.791480312375179</v>
       </c>
       <c r="X5" t="n">
-        <v>28.3312058245024</v>
+        <v>2.858632230826806</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.1165478370541643</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8.021515930217276</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1.855466976740344</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>15.97939222698273</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0003389370661167623</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE5" t="n">
+        <v>2.698004722595215</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>13.97494983673096</v>
       </c>
     </row>
     <row r="6">
@@ -905,19 +1049,45 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>21.3229591634589</v>
+        <v>0.01411476619079386</v>
       </c>
       <c r="U6" t="n">
-        <v>2.343032154883407e-05</v>
+        <v>1923.115521791667</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>209.9806668056275</v>
       </c>
       <c r="W6" t="n">
-        <v>-11.89459343220787</v>
+        <v>-7.047384736419096</v>
       </c>
       <c r="X6" t="n">
-        <v>25.32064556105907</v>
+        <v>3.152087504220491</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1161926678246368</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.958413700411958</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.846723059137253</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>22.53156816138758</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.280360122768442e-05</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.958479642868042</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>14.19769191741943</v>
       </c>
     </row>
     <row r="7">
@@ -979,19 +1149,45 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>4.414132859047459</v>
+        <v>0.006842825225855351</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1100229355940243</v>
+        <v>1857.789691124598</v>
       </c>
       <c r="V7" t="n">
-        <v>3</v>
+        <v>194.3177838840968</v>
       </c>
       <c r="W7" t="n">
-        <v>-12.66619176985984</v>
+        <v>-5.614142960297699</v>
       </c>
       <c r="X7" t="n">
-        <v>42.63430197451221</v>
+        <v>1.937899557480048</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.107669417748325</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8.67016950614164</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.750890315651342</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.931101986491111</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.006974106964427573</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE7" t="n">
+        <v>2.536250591278076</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>12.95540904998779</v>
       </c>
     </row>
     <row r="8">
@@ -1053,19 +1249,45 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4.435364108234682</v>
+        <v>0.007710236189675353</v>
       </c>
       <c r="U8" t="n">
-        <v>0.108861150858626</v>
+        <v>1870.760523351667</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>199.1305171658607</v>
       </c>
       <c r="W8" t="n">
-        <v>-11.6447697064746</v>
+        <v>-5.867117265857989</v>
       </c>
       <c r="X8" t="n">
-        <v>39.38045616086192</v>
+        <v>2.123633445264107</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.1101136944012719</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.533698013821583</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.783668816170993</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.74007294672473</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.007673085419566683</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE8" t="n">
+        <v>2.533190011978149</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13.34487056732178</v>
       </c>
     </row>
     <row r="9">
@@ -1127,19 +1349,45 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>4.934955881656129</v>
+        <v>0.009226486237911845</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08479845626025873</v>
+        <v>1883.143030122693</v>
       </c>
       <c r="V9" t="n">
-        <v>3</v>
+        <v>202.7080861624065</v>
       </c>
       <c r="W9" t="n">
-        <v>-10.62812217677681</v>
+        <v>-6.166938979389202</v>
       </c>
       <c r="X9" t="n">
-        <v>36.01823121114757</v>
+        <v>2.381082478348045</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.1120245704843556</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>8.396325744972186</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.810259609945069</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9.503543285481424</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0086363810597202</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE9" t="n">
+        <v>2.531637191772461</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>13.55913829803467</v>
       </c>
     </row>
     <row r="10">
@@ -1201,19 +1449,45 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>6.731691676264519</v>
+        <v>0.01107494595998307</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03453279460692016</v>
+        <v>1892.497595706803</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>204.2175852139688</v>
       </c>
       <c r="W10" t="n">
-        <v>-9.948109642447825</v>
+        <v>-6.446623242846038</v>
       </c>
       <c r="X10" t="n">
-        <v>32.40024086728734</v>
+        <v>2.695215082590742</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.1129461844622978</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8.275277740967285</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.821423299585024</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.659157654648805</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.007989885678935438</v>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE10" t="n">
+        <v>2.547297954559326</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>13.80620002746582</v>
       </c>
     </row>
     <row r="11">
@@ -1275,19 +1549,45 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.978482496834093</v>
+        <v>0.01316040153308274</v>
       </c>
       <c r="U11" t="n">
-        <v>0.006810830260456702</v>
+        <v>1902.325520402011</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>205.5594757974689</v>
       </c>
       <c r="W11" t="n">
-        <v>-9.310376041712354</v>
+        <v>-6.825920157494785</v>
       </c>
       <c r="X11" t="n">
-        <v>28.85881945669181</v>
+        <v>3.019598288428964</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.1139088323443737</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8.147005641274992</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.835044455810978</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11.72097769216207</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.0028498502040053</v>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE11" t="n">
+        <v>2.630757808685303</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>13.94752025604248</v>
       </c>
     </row>
     <row r="12">
@@ -1349,19 +1649,45 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>16.6094245528611</v>
+        <v>0.01515838317678847</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0002473485020183519</v>
+        <v>1908.03799361034</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>205.8132368935489</v>
       </c>
       <c r="W12" t="n">
-        <v>-9.766958293089468</v>
+        <v>-7.253456385052128</v>
       </c>
       <c r="X12" t="n">
-        <v>26.00785998979546</v>
+        <v>3.349368283476078</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.1145428712332797</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>8.056311680113808</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.845065614118695</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>17.37872549084353</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.0001683672848659112</v>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE12" t="n">
+        <v>2.730620861053467</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14.37183380126953</v>
       </c>
     </row>
     <row r="13">
@@ -1423,19 +1749,45 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>29.51626978877718</v>
+        <v>0.01768471927353749</v>
       </c>
       <c r="U13" t="n">
-        <v>3.896040404738343e-07</v>
+        <v>1916.753430268094</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>206.7304620179058</v>
       </c>
       <c r="W13" t="n">
-        <v>-10.78288385160513</v>
+        <v>-7.975947063315022</v>
       </c>
       <c r="X13" t="n">
-        <v>22.81155182066849</v>
+        <v>3.758173114708101</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.1158984378599376</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>7.930006739875209</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.869517598110251</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>30.04773451200921</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2.986877104538266e-07</v>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE13" t="n">
+        <v>3.067306280136108</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14.56553649902344</v>
       </c>
     </row>
     <row r="14">
@@ -1497,19 +1849,45 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.186153296722988</v>
+        <v>0.005606114639837776</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07478958449910655</v>
+        <v>1818.578263959325</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>168.3561060540251</v>
       </c>
       <c r="W14" t="n">
-        <v>-12.68070629936492</v>
+        <v>-4.477646392720541</v>
       </c>
       <c r="X14" t="n">
-        <v>47.20480200652045</v>
+        <v>1.708256677610854</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.09416825360061813</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>9.008251048490905</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.561750253790709</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>8.540019664582713</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.01398164568104854</v>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE14" t="n">
+        <v>2.552502632141113</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12.21396350860596</v>
       </c>
     </row>
     <row r="15">
@@ -1571,19 +1949,45 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>4.199905269866944</v>
+        <v>0.006775170565409099</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1224622285472174</v>
+        <v>1833.694548174602</v>
       </c>
       <c r="V15" t="n">
-        <v>3</v>
+        <v>178.1069290323834</v>
       </c>
       <c r="W15" t="n">
-        <v>-11.12160691317337</v>
+        <v>-4.97712392795148</v>
       </c>
       <c r="X15" t="n">
-        <v>43.63942169645098</v>
+        <v>1.914281381179299</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.09932146237195351</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>8.849914302729818</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1.638625076837699</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>7.477603289871246</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.02378258604400485</v>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE15" t="n">
+        <v>2.828334808349609</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>12.66394519805908</v>
       </c>
     </row>
     <row r="16">
@@ -1645,19 +2049,45 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3.633952866224825</v>
+        <v>0.007998684130288676</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1625163879925413</v>
+        <v>1847.320697703437</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>185.0846877967935</v>
       </c>
       <c r="W16" t="n">
-        <v>-9.550549421608128</v>
+        <v>-5.375273100435932</v>
       </c>
       <c r="X16" t="n">
-        <v>39.99543794028186</v>
+        <v>2.139010897796586</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.1029770967576714</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8.700625057938989</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.692022026540553</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6.825124016683615</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.03295665689170091</v>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE16" t="n">
+        <v>2.808005094528198</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>13.06385898590088</v>
       </c>
     </row>
     <row r="17">
@@ -1719,19 +2149,45 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>3.696614994747692</v>
+        <v>0.00991035522452558</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1575035159657039</v>
+        <v>1862.519712760652</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>191.5692950747122</v>
       </c>
       <c r="W17" t="n">
-        <v>-8.1080864713872</v>
+        <v>-5.868722452599632</v>
       </c>
       <c r="X17" t="n">
-        <v>35.96337391686367</v>
+        <v>2.462800168495763</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.1064838084249622</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>8.53134573047033</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.743724699764246</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>6.574103401980318</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.03736384695667361</v>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE17" t="n">
+        <v>2.819532155990601</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>13.49244594573975</v>
       </c>
     </row>
     <row r="18">
@@ -1793,19 +2249,45 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>4.517967894378739</v>
+        <v>0.01130136048272857</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1044565642401444</v>
+        <v>1870.999245485742</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>194.3943070618537</v>
       </c>
       <c r="W18" t="n">
-        <v>-7.520408759479378</v>
+        <v>-6.178137385674441</v>
       </c>
       <c r="X18" t="n">
-        <v>33.34579803684376</v>
+        <v>2.700707230990515</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.1081036941567561</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8.43029268567312</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.76729345111992</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>6.819348138101847</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.03305197128087434</v>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE18" t="n">
+        <v>2.771729230880737</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13.53328704833984</v>
       </c>
     </row>
     <row r="19">
@@ -1867,19 +2349,45 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>7.993751677920431</v>
+        <v>0.01394268369701948</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01837294937114298</v>
+        <v>1884.717007471835</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>198.3108264298762</v>
       </c>
       <c r="W19" t="n">
-        <v>-6.91429430946064</v>
+        <v>-6.813358329002254</v>
       </c>
       <c r="X19" t="n">
-        <v>29.21226781433191</v>
+        <v>3.132689075639008</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.1106082616356001</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>8.262184722714835</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.806421150658787</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>9.429218589651089</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.008963367416866874</v>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE19" t="n">
+        <v>2.835505723953247</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>14.0917444229126</v>
       </c>
     </row>
     <row r="20">
@@ -1941,19 +2449,45 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>14.38697290325456</v>
+        <v>0.01614337594564339</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0007514646030373218</v>
+        <v>1893.627935215775</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>200.3466927595986</v>
       </c>
       <c r="W20" t="n">
-        <v>-7.279660010432892</v>
+        <v>-7.416595367999556</v>
       </c>
       <c r="X20" t="n">
-        <v>26.27033232730574</v>
+        <v>3.504752859306901</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.1122998910665736</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>8.143491897434147</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.835182866771414</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>15.14641185872829</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.0005140418223579246</v>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE20" t="n">
+        <v>2.95491099357605</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>14.49475479125977</v>
       </c>
     </row>
     <row r="21">
@@ -2015,19 +2549,45 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>28.01836713342518</v>
+        <v>0.01868295615421885</v>
       </c>
       <c r="U21" t="n">
-        <v>8.239272771826123e-07</v>
+        <v>1905.332029117198</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>202.8634158510409</v>
       </c>
       <c r="W21" t="n">
-        <v>-8.285120821528105</v>
+        <v>-8.258354018609532</v>
       </c>
       <c r="X21" t="n">
-        <v>22.90641182363856</v>
+        <v>3.932584226342296</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.1145360131513713</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>7.991016495067599</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.87334037985938</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>28.48756638518525</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>6.516337326401e-07</v>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE21" t="n">
+        <v>3.138064622879028</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>14.74344062805176</v>
       </c>
     </row>
     <row r="22">
@@ -2089,19 +2649,45 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>52.93433179715166</v>
+        <v>0.02132280954649756</v>
       </c>
       <c r="U22" t="n">
-        <v>3.202216269926339e-12</v>
+        <v>1921.130125222988</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>206.2241599538678</v>
       </c>
       <c r="W22" t="n">
-        <v>-9.952614055683012</v>
+        <v>-9.36903711750807</v>
       </c>
       <c r="X22" t="n">
-        <v>19.85949296326014</v>
+        <v>4.357480023472857</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.1175264069897883</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>7.801207389430619</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1.927101311134162</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>53.82731876311935</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2.049027614248189e-12</v>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE22" t="n">
+        <v>3.335039854049683</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>15.05513572692871</v>
       </c>
     </row>
     <row r="23">
@@ -2163,19 +2749,45 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>5.611388430087195</v>
+        <v>0.005723659448972996</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06046478103857056</v>
+        <v>1804.560680786897</v>
       </c>
       <c r="V23" t="n">
-        <v>3</v>
+        <v>152.9249193397706</v>
       </c>
       <c r="W23" t="n">
-        <v>-10.43071671829992</v>
+        <v>-3.988340565739932</v>
       </c>
       <c r="X23" t="n">
-        <v>46.3957193758128</v>
+        <v>1.698850637275885</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.08640015880863641</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>9.092117900529091</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1.462526570850697</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8.68834747293281</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.01298223056112702</v>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE23" t="n">
+        <v>3.092186689376831</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12.01730155944824</v>
       </c>
     </row>
     <row r="24">
@@ -2237,19 +2849,45 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>4.451577372189749</v>
+        <v>0.006749019107849593</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1079822209659677</v>
+        <v>1817.809745225328</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>163.0853992397982</v>
       </c>
       <c r="W24" t="n">
-        <v>-8.481139644076855</v>
+        <v>-4.463667374112368</v>
       </c>
       <c r="X24" t="n">
-        <v>42.91122907988324</v>
+        <v>1.87557423175787</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.09171317174128543</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>8.947225319860513</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.541251999619234</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>6.977422642368025</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.0305402033362302</v>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE24" t="n">
+        <v>3.161105155944824</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>12.34026050567627</v>
       </c>
     </row>
     <row r="25">
@@ -2311,19 +2949,45 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.630883182365547</v>
+        <v>0.00821773094061517</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1627660164802156</v>
+        <v>1829.427349919213</v>
       </c>
       <c r="V25" t="n">
-        <v>3</v>
+        <v>170.3345833808895</v>
       </c>
       <c r="W25" t="n">
-        <v>-6.824858444055406</v>
+        <v>-4.901209198758062</v>
       </c>
       <c r="X25" t="n">
-        <v>39.39068966952802</v>
+        <v>2.130049961671903</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.095591127436886</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>8.812242166582951</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.599506567855235</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>5.746287108730176</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.05652097027590508</v>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE25" t="n">
+        <v>3.02396297454834</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>12.57035160064697</v>
       </c>
     </row>
     <row r="26">
@@ -2385,19 +3049,45 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>3.315990875749551</v>
+        <v>0.01002327231053389</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1905205077697608</v>
+        <v>1842.372971012489</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>177.2699889808056</v>
       </c>
       <c r="W26" t="n">
-        <v>-5.084872778324805</v>
+        <v>-5.399374730227286</v>
       </c>
       <c r="X26" t="n">
-        <v>35.51012754104347</v>
+        <v>2.433698483509787</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.09934216885025567</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>8.660208966637221</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.655542093125456</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>5.113730001036653</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.07754747104587623</v>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE26" t="n">
+        <v>3.111216068267822</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>13.07994365692139</v>
       </c>
     </row>
     <row r="27">
@@ -2459,19 +3149,45 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>4.166164331749</v>
+        <v>0.0121507430509626</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1245457493553359</v>
+        <v>1857.083503674675</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>184.2095798401118</v>
       </c>
       <c r="W27" t="n">
-        <v>-3.798028951676486</v>
+        <v>-5.984408774734399</v>
       </c>
       <c r="X27" t="n">
-        <v>31.48019296102053</v>
+        <v>2.786560182923776</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.1031558043979282</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>8.490860210984829</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1.711073414995902</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>5.654957716957671</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.0591618211302366</v>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE27" t="n">
+        <v>3.187922954559326</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>13.46151351928711</v>
       </c>
     </row>
     <row r="28">
@@ -2533,19 +3249,45 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.972804167869715</v>
+        <v>0.01427997797680656</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0306108094030747</v>
+        <v>1868.804889673751</v>
       </c>
       <c r="V28" t="n">
-        <v>3</v>
+        <v>189.3599180710088</v>
       </c>
       <c r="W28" t="n">
-        <v>-3.861536237145631</v>
+        <v>-6.611892994554885</v>
       </c>
       <c r="X28" t="n">
-        <v>28.74259667048116</v>
+        <v>3.144570772142394</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.1062935803509471</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>8.35808529879486</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1.75956979738066</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.137445032575686</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.01709921853393204</v>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE28" t="n">
+        <v>3.098067760467529</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>14.02358436584473</v>
       </c>
     </row>
     <row r="29">
@@ -2607,19 +3349,45 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>14.58259433644037</v>
+        <v>0.01702922256247048</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0006814435323005963</v>
+        <v>1882.375210236956</v>
       </c>
       <c r="V29" t="n">
-        <v>3</v>
+        <v>194.2879178623252</v>
       </c>
       <c r="W29" t="n">
-        <v>-4.109001265460889</v>
+        <v>-7.499450700016689</v>
       </c>
       <c r="X29" t="n">
-        <v>25.44171326338572</v>
+        <v>3.600336999345562</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.1096762510355988</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>8.194409991601908</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.816323965305568</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15.51982408360571</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.0004264940926873573</v>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE29" t="n">
+        <v>3.360940933227539</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>14.50379467010498</v>
       </c>
     </row>
     <row r="30">
@@ -2681,19 +3449,45 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>30.32564429885556</v>
+        <v>0.01975233339717399</v>
       </c>
       <c r="U30" t="n">
-        <v>2.599381420109736e-07</v>
+        <v>1900.159295131961</v>
       </c>
       <c r="V30" t="n">
-        <v>3</v>
+        <v>200.0440324943598</v>
       </c>
       <c r="W30" t="n">
-        <v>-5.127079123580366</v>
+        <v>-8.548720746551371</v>
       </c>
       <c r="X30" t="n">
-        <v>22.17775091666591</v>
+        <v>4.045895082346354</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.1136031273724941</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>7.994008236918265</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1.880414202539238</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>31.291332640405</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.603885833034724e-07</v>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE30" t="n">
+        <v>3.599436521530151</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>14.97037887573242</v>
       </c>
     </row>
     <row r="31">
@@ -2755,19 +3549,45 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>60.51739908163535</v>
+        <v>0.02234030920231087</v>
       </c>
       <c r="U31" t="n">
-        <v>7.227551890309769e-14</v>
+        <v>1915.960217012119</v>
       </c>
       <c r="V31" t="n">
-        <v>3</v>
+        <v>203.730676930795</v>
       </c>
       <c r="W31" t="n">
-        <v>-6.780407601605064</v>
+        <v>-9.698632590650735</v>
       </c>
       <c r="X31" t="n">
-        <v>18.9075523224091</v>
+        <v>4.468587469008692</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.1167826777879098</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>7.798211181117483</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.93635772262265</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>61.71031286212185</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>3.97459842815806e-14</v>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE31" t="n">
+        <v>3.607262134552002</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>15.15544319152832</v>
       </c>
     </row>
     <row r="32">
@@ -2829,19 +3649,45 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>5.969127432569315</v>
+        <v>0.005939052764408702</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05056155792214678</v>
+        <v>1794.910990541605</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>138.2348367575917</v>
       </c>
       <c r="W32" t="n">
-        <v>-6.944241374806296</v>
+        <v>-3.627212047565354</v>
       </c>
       <c r="X32" t="n">
-        <v>44.09919118147693</v>
+        <v>1.670883424475983</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.07929342216726326</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>9.123059177693214</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1.380621884400646</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.38129252827175</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.009180751048484592</v>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE32" t="n">
+        <v>3.374415874481201</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>11.92566871643066</v>
       </c>
     </row>
     <row r="33">
@@ -2903,19 +3749,45 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>4.65504311393732</v>
+        <v>0.007232515461184555</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09753718813122825</v>
+        <v>1807.075101769982</v>
       </c>
       <c r="V33" t="n">
-        <v>3</v>
+        <v>148.3855837262215</v>
       </c>
       <c r="W33" t="n">
-        <v>-4.431738958763686</v>
+        <v>-4.104196058986291</v>
       </c>
       <c r="X33" t="n">
-        <v>40.04976688216271</v>
+        <v>1.893721657192219</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.08458864201437863</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>8.976601894533289</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1.458855759405878</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>7.081077514809268</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.02899770014733982</v>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE33" t="n">
+        <v>3.297137975692749</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>12.18306064605713</v>
       </c>
     </row>
     <row r="34">
@@ -2977,19 +3849,45 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>3.86490842053396</v>
+        <v>0.008605828672474735</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1447924110518356</v>
+        <v>1817.487709649119</v>
       </c>
       <c r="V34" t="n">
-        <v>3</v>
+        <v>156.3584478113895</v>
       </c>
       <c r="W34" t="n">
-        <v>-2.891312364389061</v>
+        <v>-4.536849753213491</v>
       </c>
       <c r="X34" t="n">
-        <v>36.99625430693314</v>
+        <v>2.128933800335837</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.08877970234386724</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>8.856019026166466</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.51954926352038</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>5.748065180031885</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.05647074344833725</v>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE34" t="n">
+        <v>3.319733142852783</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>12.44633483886719</v>
       </c>
     </row>
     <row r="35">
@@ -3051,19 +3949,45 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>3.462456604299167</v>
+        <v>0.01027318847935016</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1770667848300992</v>
+        <v>1829.296006250463</v>
       </c>
       <c r="V35" t="n">
-        <v>3</v>
+        <v>164.0063235286174</v>
       </c>
       <c r="W35" t="n">
-        <v>-1.15597364035596</v>
+        <v>-5.018933291525661</v>
       </c>
       <c r="X35" t="n">
-        <v>33.32896061598019</v>
+        <v>2.407808995713729</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.09282595544178016</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>8.715119611231668</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1.577594998629744</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>4.931839743020519</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.08493068111415014</v>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE35" t="n">
+        <v>3.352538585662842</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>12.81366443634033</v>
       </c>
     </row>
     <row r="36">
@@ -3125,19 +4049,45 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>4.109043330378177</v>
+        <v>0.01230405370336201</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1281541214962427</v>
+        <v>1842.784974665828</v>
       </c>
       <c r="V36" t="n">
-        <v>3</v>
+        <v>172.3796481356425</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.2329684845260197</v>
+        <v>-5.638283745874879</v>
       </c>
       <c r="X36" t="n">
-        <v>30.08813112828673</v>
+        <v>2.742104947225995</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.09737182311067256</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>8.565031665175553</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1.642908185162571</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>5.302471742041854</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.07056395120691961</v>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE36" t="n">
+        <v>3.47084641456604</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>13.4436149597168</v>
       </c>
     </row>
     <row r="37">
@@ -3199,19 +4149,45 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>7.113480575284416</v>
+        <v>0.0146924480854489</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02853167835841242</v>
+        <v>1854.561268107208</v>
       </c>
       <c r="V37" t="n">
-        <v>3</v>
+        <v>178.5666106502817</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02246370981226072</v>
+        <v>-6.359945988637913</v>
       </c>
       <c r="X37" t="n">
-        <v>27.04369078065103</v>
+        <v>3.13729551107906</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.1011228801640802</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>8.424918856387032</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1.701199642985428</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8.039559959515225</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.01795691538977395</v>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE37" t="n">
+        <v>3.50693678855896</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>13.99488735198975</v>
       </c>
     </row>
     <row r="38">
@@ -3273,19 +4249,45 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>14.47829832768438</v>
+        <v>0.01729539590075853</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0007179223346038821</v>
+        <v>1872.067925524716</v>
       </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>186.5540617936105</v>
       </c>
       <c r="W38" t="n">
-        <v>0.1575045226966459</v>
+        <v>-7.246248283020125</v>
       </c>
       <c r="X38" t="n">
-        <v>23.167104281841</v>
+        <v>3.551442337604172</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.1057665398151225</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>8.226857706546525</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1.76865331408857</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>15.26017518520092</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.0004856183199059005</v>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE38" t="n">
+        <v>3.586935043334961</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>14.59361171722412</v>
       </c>
     </row>
     <row r="39">
@@ -3347,19 +4349,45 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>33.56914941552246</v>
+        <v>0.0204034169116834</v>
       </c>
       <c r="U39" t="n">
-        <v>5.135134506506489e-08</v>
+        <v>1889.682944261102</v>
       </c>
       <c r="V39" t="n">
-        <v>3</v>
+        <v>193.8519895500959</v>
       </c>
       <c r="W39" t="n">
-        <v>-1.165335329293536</v>
+        <v>-8.535413313873867</v>
       </c>
       <c r="X39" t="n">
-        <v>20.36310642860359</v>
+        <v>4.057449977785367</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.1107897469695056</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>8.02703564043118</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1.854103709551148</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>34.71008517449615</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2.902690765527183e-08</v>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE39" t="n">
+        <v>3.605601787567139</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>15.03475475311279</v>
       </c>
     </row>
     <row r="40">
@@ -3421,19 +4449,45 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>66.00293980879815</v>
+        <v>0.02287408820223039</v>
       </c>
       <c r="U40" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>1912.95414360032</v>
       </c>
       <c r="V40" t="n">
-        <v>3</v>
+        <v>201.2742052269745</v>
       </c>
       <c r="W40" t="n">
-        <v>-3.143241318836956</v>
+        <v>-9.703376507882048</v>
       </c>
       <c r="X40" t="n">
-        <v>17.45796085376158</v>
+        <v>4.432880616201108</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.1155367071833451</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>7.78300971526346</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1.927149426239511</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>67.37676603894541</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2.331468351712829e-15</v>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE40" t="n">
+        <v>3.719820499420166</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>15.16509914398193</v>
       </c>
     </row>
     <row r="41">
@@ -3495,19 +4549,45 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.129118270032785</v>
+        <v>0.005985722554952928</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04667441444423226</v>
+        <v>1789.105901200297</v>
       </c>
       <c r="V41" t="n">
-        <v>3</v>
+        <v>125.1504573882852</v>
       </c>
       <c r="W41" t="n">
-        <v>-2.600554370423751</v>
+        <v>-3.352284094386424</v>
       </c>
       <c r="X41" t="n">
-        <v>40.53775931559329</v>
+        <v>1.599777915149974</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.073180109810408</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>9.10971344775762</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1.316324609641298</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>10.28146682505507</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.005853395185340227</v>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE41" t="n">
+        <v>2.879737377166748</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>11.40456199645996</v>
       </c>
     </row>
     <row r="42">
@@ -3569,19 +4649,45 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>4.929273096529363</v>
+        <v>0.007110329218215433</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08503974459837071</v>
+        <v>1799.250473681775</v>
       </c>
       <c r="V42" t="n">
-        <v>3</v>
+        <v>134.0924614145673</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1939355310845667</v>
+        <v>-3.727425762119624</v>
       </c>
       <c r="X42" t="n">
-        <v>36.45265941586783</v>
+        <v>1.79411551312567</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.07770798014440843</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>8.977317779911282</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1.380448262440933</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>8.073417206404541</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.01765548810393058</v>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE42" t="n">
+        <v>3.560308218002319</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>11.94965744018555</v>
       </c>
     </row>
     <row r="43">
@@ -3643,19 +4749,45 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4.155491136829046</v>
+        <v>0.00863808033441326</v>
       </c>
       <c r="U43" t="n">
-        <v>0.125212176530168</v>
+        <v>1808.76384067771</v>
       </c>
       <c r="V43" t="n">
-        <v>3</v>
+        <v>141.7838651296247</v>
       </c>
       <c r="W43" t="n">
-        <v>2.449284918149605</v>
+        <v>-4.138784153391219</v>
       </c>
       <c r="X43" t="n">
-        <v>32.95065884496786</v>
+        <v>2.041999223562375</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.08171077151635865</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>8.855275619814973</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1.437625352181259</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>6.572018139264034</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.03740282399097961</v>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE43" t="n">
+        <v>3.582124948501587</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>12.28920745849609</v>
       </c>
     </row>
     <row r="44">
@@ -3717,19 +4849,45 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>3.71279674687964</v>
+        <v>0.01027236935138879</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1562343159318779</v>
+        <v>1820.039738440431</v>
       </c>
       <c r="V44" t="n">
-        <v>3</v>
+        <v>150.5424983548378</v>
       </c>
       <c r="W44" t="n">
-        <v>4.176380586453162</v>
+        <v>-4.604448383643676</v>
       </c>
       <c r="X44" t="n">
-        <v>29.51451821307172</v>
+        <v>2.307721894239452</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.08618063524205122</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>8.721260727460336</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1.497675826014134</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>5.524557102858912</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.06314771898464966</v>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE44" t="n">
+        <v>3.70386528968811</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>12.61337566375732</v>
       </c>
     </row>
     <row r="45">
@@ -3791,19 +4949,45 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>4.340258704161974</v>
+        <v>0.01231428695863964</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1141628487536535</v>
+        <v>1831.299239219373</v>
       </c>
       <c r="V45" t="n">
-        <v>3</v>
+        <v>158.6078760156398</v>
       </c>
       <c r="W45" t="n">
-        <v>5.131655959773929</v>
+        <v>-5.180514748106643</v>
       </c>
       <c r="X45" t="n">
-        <v>26.49412707936738</v>
+        <v>2.633986523217033</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.09053128741869934</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>8.589800428198293</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1.558533015770604</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>5.677035066169116</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.05851234431432439</v>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE45" t="n">
+        <v>3.597609281539917</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>13.21158027648926</v>
       </c>
     </row>
     <row r="46">
@@ -3865,19 +5049,45 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>7.555035025253416</v>
+        <v>0.01495916889405634</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02287941885180755</v>
+        <v>1846.388177677795</v>
       </c>
       <c r="V46" t="n">
-        <v>3</v>
+        <v>168.8383196541722</v>
       </c>
       <c r="W46" t="n">
-        <v>5.365187605548188</v>
+        <v>-6.044121021597624</v>
       </c>
       <c r="X46" t="n">
-        <v>23.56813761119351</v>
+        <v>3.049405535777334</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.09624216603254504</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>8.425291436723281</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1.641249905139774</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>8.555270653160671</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.01387543419396764</v>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE46" t="n">
+        <v>3.582446813583374</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>13.98094463348389</v>
       </c>
     </row>
     <row r="47">
@@ -3939,19 +5149,45 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>14.60853605862567</v>
+        <v>0.01743629115340806</v>
       </c>
       <c r="U47" t="n">
-        <v>0.0006726616999874757</v>
+        <v>1860.800965761505</v>
       </c>
       <c r="V47" t="n">
-        <v>3</v>
+        <v>177.2088662756244</v>
       </c>
       <c r="W47" t="n">
-        <v>4.83692635561724</v>
+        <v>-6.935138924654914</v>
       </c>
       <c r="X47" t="n">
-        <v>20.94049750143148</v>
+        <v>3.443682539669017</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.1011569661869414</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>8.266860634374265</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1.714113191631074</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>15.46625704699109</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.0004380714541801778</v>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE47" t="n">
+        <v>3.791821718215942</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>14.50469493865967</v>
       </c>
     </row>
     <row r="48">
@@ -4013,19 +5249,45 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>35.93682626792588</v>
+        <v>0.02075494273154534</v>
       </c>
       <c r="U48" t="n">
-        <v>1.571872543237873e-08</v>
+        <v>1883.934472518733</v>
       </c>
       <c r="V48" t="n">
-        <v>3</v>
+        <v>188.6070784106394</v>
       </c>
       <c r="W48" t="n">
-        <v>3.317845663323832</v>
+        <v>-8.340592916218087</v>
       </c>
       <c r="X48" t="n">
-        <v>17.87942815415922</v>
+        <v>3.955150496361188</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.1080532242687294</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>8.0223019966172</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1.820110306355468</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>37.08622948515482</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>8.847642951614887e-09</v>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE48" t="n">
+        <v>3.660143613815308</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>14.9818811416626</v>
       </c>
     </row>
     <row r="49">
@@ -4087,19 +5349,45 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>72.90659869524454</v>
+        <v>0.02333668515548367</v>
       </c>
       <c r="U49" t="n">
+        <v>1908.461926194631</v>
+      </c>
+      <c r="V49" t="n">
+        <v>198.2863400414355</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-9.685545383428856</v>
+      </c>
+      <c r="X49" t="n">
+        <v>4.367806736618213</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.1140930570564763</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>7.780497813745045</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1.914868691477184</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>74.52930528949219</v>
+      </c>
+      <c r="AC49" t="n">
         <v>1.110223024625157e-16</v>
       </c>
-      <c r="V49" t="n">
-        <v>3</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0.3069827344688129</v>
-      </c>
-      <c r="X49" t="n">
-        <v>16.02565600498684</v>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE49" t="n">
+        <v>3.88332200050354</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>15.34233856201172</v>
       </c>
     </row>
     <row r="50">
@@ -4161,19 +5449,45 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>5.826447483090456</v>
+        <v>0.006095786288845258</v>
       </c>
       <c r="U50" t="n">
-        <v>0.05430039696143918</v>
+        <v>1788.564284731499</v>
       </c>
       <c r="V50" t="n">
-        <v>3</v>
+        <v>115.1903414599131</v>
       </c>
       <c r="W50" t="n">
-        <v>3.804492907957619</v>
+        <v>-3.196618219872452</v>
       </c>
       <c r="X50" t="n">
-        <v>34.4275396429381</v>
+        <v>1.520305149933684</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.06873545438315187</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>9.022792524285752</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1.276817161411238</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>10.83295446839433</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.004442769951108927</v>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE50" t="n">
+        <v>3.880881071090698</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>11.90796089172363</v>
       </c>
     </row>
     <row r="51">
@@ -4235,19 +5549,45 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>4.91736852690728</v>
+        <v>0.007128359451633699</v>
       </c>
       <c r="U51" t="n">
-        <v>0.08554743483798777</v>
+        <v>1796.818681683574</v>
       </c>
       <c r="V51" t="n">
-        <v>3</v>
+        <v>122.5933166383642</v>
       </c>
       <c r="W51" t="n">
-        <v>6.587372034469486</v>
+        <v>-3.47076670610138</v>
       </c>
       <c r="X51" t="n">
-        <v>30.6687676510632</v>
+        <v>1.689347065641761</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.0723061979511995</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>8.908322494404786</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1.323155177163384</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>9.075693216118255</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.0106964153457596</v>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE51" t="n">
+        <v>3.878361463546753</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>12.09301948547363</v>
       </c>
     </row>
     <row r="52">
@@ -4309,19 +5649,45 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>4.316480633375698</v>
+        <v>0.008294079547027725</v>
       </c>
       <c r="U52" t="n">
-        <v>0.1155282353850768</v>
+        <v>1804.029908247308</v>
       </c>
       <c r="V52" t="n">
-        <v>3</v>
+        <v>128.1360299999582</v>
       </c>
       <c r="W52" t="n">
-        <v>9.023656388791839</v>
+        <v>-3.719434506810907</v>
       </c>
       <c r="X52" t="n">
-        <v>27.21641888821263</v>
+        <v>1.86547272251768</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.07501018829817835</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>8.804901937406054</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1.357568245523672</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>7.950381731168997</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.01877571751436824</v>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE52" t="n">
+        <v>3.853766202926636</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>12.36885833740234</v>
       </c>
     </row>
     <row r="53">
@@ -4383,19 +5749,45 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>4.032233261181438</v>
+        <v>0.01000720715854496</v>
       </c>
       <c r="U53" t="n">
-        <v>0.1331716168104534</v>
+        <v>1813.027975527215</v>
       </c>
       <c r="V53" t="n">
-        <v>3</v>
+        <v>136.7064244342563</v>
       </c>
       <c r="W53" t="n">
-        <v>10.07568831423368</v>
+        <v>-4.151003253594608</v>
       </c>
       <c r="X53" t="n">
-        <v>24.7854129443306</v>
+        <v>2.141067640128211</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.07934200511986529</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>8.700864600145552</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1.413398103016241</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>6.848159241724742</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.03257925245871252</v>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE53" t="n">
+        <v>3.846518754959106</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>12.80064678192139</v>
       </c>
     </row>
     <row r="54">
@@ -4457,19 +5849,45 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>4.713821234894449</v>
+        <v>0.01227551845386234</v>
       </c>
       <c r="U54" t="n">
-        <v>0.09471237443758351</v>
+        <v>1824.550618061278</v>
       </c>
       <c r="V54" t="n">
-        <v>3</v>
+        <v>146.4191650147858</v>
       </c>
       <c r="W54" t="n">
-        <v>11.13922700035633</v>
+        <v>-4.757179788436317</v>
       </c>
       <c r="X54" t="n">
-        <v>21.83094343849442</v>
+        <v>2.485238178044922</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.08442431196365888</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>8.567005346020188</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1.481049154564836</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>6.733067568162831</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.03450904608054517</v>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE54" t="n">
+        <v>3.777590274810791</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>13.20924854278564</v>
       </c>
     </row>
     <row r="55">
@@ -4531,19 +5949,45 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>7.443446561901649</v>
+        <v>0.01468111055202743</v>
       </c>
       <c r="U55" t="n">
-        <v>0.02419224187365221</v>
+        <v>1836.743187122582</v>
       </c>
       <c r="V55" t="n">
-        <v>3</v>
+        <v>155.9787304874811</v>
       </c>
       <c r="W55" t="n">
-        <v>11.33158875728279</v>
+        <v>-5.490348049078732</v>
       </c>
       <c r="X55" t="n">
-        <v>19.3733074269433</v>
+        <v>2.84593573590252</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.08965051680342165</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>8.431592381459648</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1.553559684143321</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>8.841398638461653</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.01202581945662795</v>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE55" t="n">
+        <v>3.796491861343384</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>13.76552772521973</v>
       </c>
     </row>
     <row r="56">
@@ -4605,19 +6049,45 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>15.42654664792989</v>
+        <v>0.01755786066840239</v>
       </c>
       <c r="U56" t="n">
-        <v>0.0004468563748843968</v>
+        <v>1853.44487441358</v>
       </c>
       <c r="V56" t="n">
-        <v>3</v>
+        <v>168.4388771926217</v>
       </c>
       <c r="W56" t="n">
-        <v>10.08694292876984</v>
+        <v>-6.580870574065615</v>
       </c>
       <c r="X56" t="n">
-        <v>17.606849890123</v>
+        <v>3.290003139873237</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.09668168763662012</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>8.265080646042305</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1.656063968330844</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>16.42102428658154</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.0002717814945715213</v>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE56" t="n">
+        <v>3.926680564880371</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>14.36446571350098</v>
       </c>
     </row>
     <row r="57">
@@ -4679,19 +6149,45 @@
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>34.1278509686058</v>
+        <v>0.02057324753993761</v>
       </c>
       <c r="U57" t="n">
-        <v>3.883571653151563e-08</v>
+        <v>1876.078506741097</v>
       </c>
       <c r="V57" t="n">
-        <v>3</v>
+        <v>182.160898661698</v>
       </c>
       <c r="W57" t="n">
-        <v>7.516800576637339</v>
+        <v>-7.928390226228704</v>
       </c>
       <c r="X57" t="n">
-        <v>15.76214294634243</v>
+        <v>3.77223975743439</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.104529959423726</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>8.046627103903885</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1.770783550118297</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>35.14431374584329</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>2.336195781271755e-08</v>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE57" t="n">
+        <v>3.902991771697998</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>14.84469890594482</v>
       </c>
     </row>
     <row r="58">
@@ -4753,19 +6249,45 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>73.45583881985777</v>
+        <v>0.02343822468082491</v>
       </c>
       <c r="U58" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1901.216516047982</v>
       </c>
       <c r="V58" t="n">
-        <v>3</v>
+        <v>193.2800712147922</v>
       </c>
       <c r="W58" t="n">
-        <v>4.682863851654842</v>
+        <v>-9.356054516221842</v>
       </c>
       <c r="X58" t="n">
-        <v>13.72503814641304</v>
+        <v>4.19591724725608</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.111290116753855</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>7.794409896784925</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1.874919214437808</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>74.87374025693684</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE58" t="n">
+        <v>3.66084885597229</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>15.29605579376221</v>
       </c>
     </row>
     <row r="59">
@@ -4827,19 +6349,45 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>5.021060488862543</v>
+        <v>0.007020681420399731</v>
       </c>
       <c r="U59" t="n">
-        <v>0.08122515863223079</v>
+        <v>1795.845093220265</v>
       </c>
       <c r="V59" t="n">
-        <v>3</v>
+        <v>110.2634744151601</v>
       </c>
       <c r="W59" t="n">
-        <v>14.10695087933846</v>
+        <v>-3.169877969441686</v>
       </c>
       <c r="X59" t="n">
-        <v>23.60889230679711</v>
+        <v>1.533346063754177</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.06648338701479102</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>8.811654728110417</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1.257111884835559</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>10.94363022884577</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.00420359522282121</v>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE59" t="n">
+        <v>4.126227855682373</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>12.357346534729</v>
       </c>
     </row>
     <row r="60">
@@ -4901,19 +6449,45 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>4.641610825516925</v>
+        <v>0.008384986032816937</v>
       </c>
       <c r="U60" t="n">
-        <v>0.09819446667067222</v>
+        <v>1802.148573118087</v>
       </c>
       <c r="V60" t="n">
-        <v>3</v>
+        <v>116.5216306197396</v>
       </c>
       <c r="W60" t="n">
-        <v>15.7671458511128</v>
+        <v>-3.427202865796386</v>
       </c>
       <c r="X60" t="n">
-        <v>21.09790246071212</v>
+        <v>1.740534888920838</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.06946583971910668</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>8.727249723932941</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1.291995277657361</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>9.806223471784131</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.00742344728600397</v>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE60" t="n">
+        <v>4.254542350769043</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>12.5937967300415</v>
       </c>
     </row>
     <row r="61">
@@ -4975,19 +6549,45 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>4.451728236672448</v>
+        <v>0.01006730639377948</v>
       </c>
       <c r="U61" t="n">
-        <v>0.1079740759322172</v>
+        <v>1810.787089402293</v>
       </c>
       <c r="V61" t="n">
-        <v>3</v>
+        <v>125.7638995629434</v>
       </c>
       <c r="W61" t="n">
-        <v>16.79861467192251</v>
+        <v>-3.815018955229055</v>
       </c>
       <c r="X61" t="n">
-        <v>18.83172225252832</v>
+        <v>1.99785389706251</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.07390825546166216</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>8.628153340593789</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>1.344226957979696</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>8.521771905221318</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.01410979626022124</v>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE61" t="n">
+        <v>4.2161545753479</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>12.86274242401123</v>
       </c>
     </row>
     <row r="62">
@@ -5049,19 +6649,45 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>4.872600287743867</v>
+        <v>0.01174873452414175</v>
       </c>
       <c r="U62" t="n">
-        <v>0.08748393137844312</v>
+        <v>1819.333862307396</v>
       </c>
       <c r="V62" t="n">
-        <v>3</v>
+        <v>133.768939192973</v>
       </c>
       <c r="W62" t="n">
-        <v>17.67912526958266</v>
+        <v>-4.216226695607755</v>
       </c>
       <c r="X62" t="n">
-        <v>16.55333062843699</v>
+        <v>2.236641780729235</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.07785768910493722</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>8.528321940023904</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1.39133283844068</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>8.11639864674502</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.0172801070021299</v>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE62" t="n">
+        <v>4.006616115570068</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>13.19457340240479</v>
       </c>
     </row>
     <row r="63">
@@ -5123,19 +6749,45 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>7.706030939422931</v>
+        <v>0.0144858494561258</v>
       </c>
       <c r="U63" t="n">
-        <v>0.02121566468943903</v>
+        <v>1831.237971787175</v>
       </c>
       <c r="V63" t="n">
-        <v>3</v>
+        <v>145.1006768504383</v>
       </c>
       <c r="W63" t="n">
-        <v>17.28220439711426</v>
+        <v>-5.011414499462786</v>
       </c>
       <c r="X63" t="n">
-        <v>14.71745336190865</v>
+        <v>2.637752997236562</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.08399553639921081</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>8.402305735263715</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1.47494070944119</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>9.895594369594418</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.007099029568302995</v>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE63" t="n">
+        <v>3.903209447860718</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>13.6936674118042</v>
       </c>
     </row>
     <row r="64">
@@ -5197,19 +6849,45 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>14.06756927268961</v>
+        <v>0.0171057748099153</v>
       </c>
       <c r="U64" t="n">
-        <v>0.0008815889652765696</v>
+        <v>1847.282242523308</v>
       </c>
       <c r="V64" t="n">
-        <v>3</v>
+        <v>158.5146067313444</v>
       </c>
       <c r="W64" t="n">
-        <v>16.10589527025208</v>
+        <v>-5.942931048174592</v>
       </c>
       <c r="X64" t="n">
-        <v>13.03646356963701</v>
+        <v>3.015554825671704</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.09111327542057475</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>8.245782027590725</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>1.57026622705338</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>15.32755852663914</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0.0004695295775519748</v>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE64" t="n">
+        <v>3.96169114112854</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>14.15436363220215</v>
       </c>
     </row>
     <row r="65">
@@ -5271,19 +6949,45 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>31.68287794383162</v>
+        <v>0.02028029107249053</v>
       </c>
       <c r="U65" t="n">
-        <v>1.318713551690109e-07</v>
+        <v>1866.213199387028</v>
       </c>
       <c r="V65" t="n">
-        <v>3</v>
+        <v>172.428688213657</v>
       </c>
       <c r="W65" t="n">
-        <v>13.15062024638852</v>
+        <v>-7.321867963348669</v>
       </c>
       <c r="X65" t="n">
-        <v>12.20265473440634</v>
+        <v>3.505362499811747</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.09925616978069154</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>8.066734709252797</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1.693277583234823</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>32.55761406568267</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>8.515378047135869e-08</v>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE65" t="n">
+        <v>3.887026309967041</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>14.80281543731689</v>
       </c>
     </row>
     <row r="66">
@@ -5345,19 +7049,45 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>4.919061972229386</v>
+        <v>0.008094941929136089</v>
       </c>
       <c r="U66" t="n">
-        <v>0.08547503054381966</v>
+        <v>1803.065062095972</v>
       </c>
       <c r="V66" t="n">
-        <v>3</v>
+        <v>105.865055616446</v>
       </c>
       <c r="W66" t="n">
-        <v>23.62971264233065</v>
+        <v>-3.035920942155326</v>
       </c>
       <c r="X66" t="n">
-        <v>13.47413078302637</v>
+        <v>1.534616405860435</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.06391158313549024</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>8.611481637450535</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>1.212817224831085</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>11.98913674173849</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0.002492252470300049</v>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE66" t="n">
+        <v>4.515800476074219</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>12.68101024627686</v>
       </c>
     </row>
     <row r="67">
@@ -5419,19 +7149,45 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>4.925319640016995</v>
+        <v>0.009835056787021467</v>
       </c>
       <c r="U67" t="n">
-        <v>0.08520801131841582</v>
+        <v>1809.826507441956</v>
       </c>
       <c r="V67" t="n">
-        <v>3</v>
+        <v>114.0652537013903</v>
       </c>
       <c r="W67" t="n">
-        <v>24.34726766500757</v>
+        <v>-3.369887366306302</v>
       </c>
       <c r="X67" t="n">
-        <v>11.81695068152887</v>
+        <v>1.783872531566455</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.06781306660551203</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>8.533890670384872</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>1.256868418005553</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>10.78208738349059</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0.004557214525619746</v>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE67" t="n">
+        <v>4.269056797027588</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>12.91612815856934</v>
       </c>
     </row>
     <row r="68">
@@ -5493,19 +7249,45 @@
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>5.505618865084259</v>
+        <v>0.01171591481623785</v>
       </c>
       <c r="U68" t="n">
-        <v>0.06374851224545419</v>
+        <v>1817.28357425396</v>
       </c>
       <c r="V68" t="n">
-        <v>3</v>
+        <v>123.1094484623871</v>
       </c>
       <c r="W68" t="n">
-        <v>24.17822605347106</v>
+        <v>-3.810612724260528</v>
       </c>
       <c r="X68" t="n">
-        <v>10.66300744848742</v>
+        <v>2.055573873248151</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.07233037751903099</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>8.456941706699954</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>1.311634526868541</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>10.18434250899766</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.006144663763803626</v>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE68" t="n">
+        <v>4.198974132537842</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>13.09616565704346</v>
       </c>
     </row>
     <row r="69">
@@ -5567,19 +7349,45 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>7.610200508092923</v>
+        <v>0.01401347287902443</v>
       </c>
       <c r="U69" t="n">
-        <v>0.0222569657033288</v>
+        <v>1827.976410804391</v>
       </c>
       <c r="V69" t="n">
-        <v>3</v>
+        <v>134.7759155198548</v>
       </c>
       <c r="W69" t="n">
-        <v>23.67541382558702</v>
+        <v>-4.447296024796837</v>
       </c>
       <c r="X69" t="n">
-        <v>9.383586104991588</v>
+        <v>2.370016088240882</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0.07827521299886665</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>8.350610399426497</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>1.386573576065322</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>10.91029662447247</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0.004274242812191353</v>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE69" t="n">
+        <v>4.104949474334717</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>13.48521137237549</v>
       </c>
     </row>
     <row r="70">
@@ -5641,19 +7449,45 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>13.53709300714181</v>
+        <v>0.01673090512309465</v>
       </c>
       <c r="U70" t="n">
-        <v>0.00114936403390542</v>
+        <v>1841.240482974365</v>
       </c>
       <c r="V70" t="n">
-        <v>3</v>
+        <v>148.9821337428867</v>
       </c>
       <c r="W70" t="n">
-        <v>21.11812536503232</v>
+        <v>-5.437576013614736</v>
       </c>
       <c r="X70" t="n">
-        <v>9.488586204594984</v>
+        <v>2.78229407838722</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.08603840074667476</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>8.238582347543923</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>1.496411259435297</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>15.4751542868803</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0.0004361269691163239</v>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>new NiCrCoVFe data</t>
+        </is>
+      </c>
+      <c r="AE70" t="n">
+        <v>4.050249099731445</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>13.98354148864746</v>
       </c>
     </row>
   </sheetData>
